--- a/predict_skema1_part5.xlsx
+++ b/predict_skema1_part5.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.919318561583501</v>
+        <v>1.748234547431771</v>
       </c>
       <c r="C2" t="n">
-        <v>1.385048123379387</v>
+        <v>1.682889018626459</v>
       </c>
       <c r="D2" t="n">
-        <v>3.466339781419541</v>
+        <v>2.98772141804284</v>
       </c>
       <c r="E2" t="n">
-        <v>2.471108078548661</v>
+        <v>3.405903352465087</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.801614906423573</v>
+        <v>1.773339467247318</v>
       </c>
       <c r="C3" t="n">
-        <v>1.444842661725156</v>
+        <v>1.752902624063394</v>
       </c>
       <c r="D3" t="n">
-        <v>3.368979157520206</v>
+        <v>3.583094266467032</v>
       </c>
       <c r="E3" t="n">
-        <v>2.640997006967302</v>
+        <v>3.286321559343179</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.055766329302052</v>
+        <v>1.817992187576355</v>
       </c>
       <c r="C4" t="n">
-        <v>1.430417839661292</v>
+        <v>1.644711373878327</v>
       </c>
       <c r="D4" t="n">
-        <v>3.322483495036181</v>
+        <v>3.270454066440617</v>
       </c>
       <c r="E4" t="n">
-        <v>2.775728042388357</v>
+        <v>3.213444604906148</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.135971218937279</v>
+        <v>1.896682767602658</v>
       </c>
       <c r="C5" t="n">
-        <v>1.510000514805079</v>
+        <v>1.720732424478878</v>
       </c>
       <c r="D5" t="n">
-        <v>3.853302415575342</v>
+        <v>3.484031020795493</v>
       </c>
       <c r="E5" t="n">
-        <v>2.984243566898569</v>
+        <v>3.437020113848882</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.876866665910972</v>
+        <v>1.867929356953415</v>
       </c>
       <c r="C6" t="n">
-        <v>1.40137130625303</v>
+        <v>1.664520662298199</v>
       </c>
       <c r="D6" t="n">
-        <v>3.315091087357267</v>
+        <v>3.458004955571794</v>
       </c>
       <c r="E6" t="n">
-        <v>2.920218551252611</v>
+        <v>3.259207154205602</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.938062674142123</v>
+        <v>1.843097107391903</v>
       </c>
       <c r="C7" t="n">
-        <v>1.490212378007061</v>
+        <v>1.714724979315262</v>
       </c>
       <c r="D7" t="n">
-        <v>3.344393460094868</v>
+        <v>3.566341996370401</v>
       </c>
       <c r="E7" t="n">
-        <v>2.771375601254534</v>
+        <v>3.891624392489889</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.01826756377735</v>
+        <v>1.921787687418205</v>
       </c>
       <c r="C8" t="n">
-        <v>1.569795053150849</v>
+        <v>1.790746029915813</v>
       </c>
       <c r="D8" t="n">
-        <v>3.618143800656177</v>
+        <v>3.735021698228312</v>
       </c>
       <c r="E8" t="n">
-        <v>3.093783411467344</v>
+        <v>3.559530620055694</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.759163010751044</v>
+        <v>1.893034276768962</v>
       </c>
       <c r="C9" t="n">
-        <v>1.461165844598799</v>
+        <v>1.734534267735135</v>
       </c>
       <c r="D9" t="n">
-        <v>3.321432923720681</v>
+        <v>4.023954917780851</v>
       </c>
       <c r="E9" t="n">
-        <v>2.945053948471512</v>
+        <v>3.635544235425846</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +619,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.272418986655828</v>
+        <v>1.966440407747243</v>
       </c>
       <c r="C10" t="n">
-        <v>1.555370231086985</v>
+        <v>1.682554779730745</v>
       </c>
       <c r="D10" t="n">
-        <v>3.583500060507288</v>
+        <v>3.393142585943583</v>
       </c>
       <c r="E10" t="n">
-        <v>2.848449504617788</v>
+        <v>3.427390993670519</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +638,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.013314433629522</v>
+        <v>1.937686997097999</v>
       </c>
       <c r="C11" t="n">
-        <v>1.446741022534935</v>
+        <v>1.626343017550067</v>
       </c>
       <c r="D11" t="n">
-        <v>3.396851436511688</v>
+        <v>3.250479947138027</v>
       </c>
       <c r="E11" t="n">
-        <v>2.976570965607225</v>
+        <v>3.408299653132361</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +657,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.093519323264749</v>
+        <v>2.016377577124302</v>
       </c>
       <c r="C12" t="n">
-        <v>1.526323697678722</v>
+        <v>1.702364068150618</v>
       </c>
       <c r="D12" t="n">
-        <v>4.018893500346184</v>
+        <v>3.820174309428484</v>
       </c>
       <c r="E12" t="n">
-        <v>3.028408526988836</v>
+        <v>3.131091859268148</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.1547153314959</v>
+        <v>1.991545327562789</v>
       </c>
       <c r="C13" t="n">
-        <v>1.615164769432754</v>
+        <v>1.752568385167681</v>
       </c>
       <c r="D13" t="n">
-        <v>3.923072322741816</v>
+        <v>3.760614980409736</v>
       </c>
       <c r="E13" t="n">
-        <v>3.261322658543099</v>
+        <v>3.632907082728033</v>
       </c>
     </row>
     <row r="14">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.895610778469594</v>
+        <v>1.962791916913546</v>
       </c>
       <c r="C14" t="n">
-        <v>1.506535560880704</v>
+        <v>1.696356622987002</v>
       </c>
       <c r="D14" t="n">
-        <v>3.503773361396846</v>
+        <v>3.717058808069873</v>
       </c>
       <c r="E14" t="n">
-        <v>3.283919661306387</v>
+        <v>3.393258294074065</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +714,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.975815668104821</v>
+        <v>2.041482496939849</v>
       </c>
       <c r="C15" t="n">
-        <v>1.586118236024491</v>
+        <v>1.772377673587554</v>
       </c>
       <c r="D15" t="n">
-        <v>3.859633219530134</v>
+        <v>3.960358133642914</v>
       </c>
       <c r="E15" t="n">
-        <v>3.089141567952075</v>
+        <v>3.849048277734343</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +733,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.229967090983299</v>
+        <v>2.086135217268886</v>
       </c>
       <c r="C16" t="n">
-        <v>1.571693413960627</v>
+        <v>1.664186423402486</v>
       </c>
       <c r="D16" t="n">
-        <v>3.527497752248483</v>
+        <v>3.778150334220844</v>
       </c>
       <c r="E16" t="n">
-        <v>2.970078059348612</v>
+        <v>3.40508202788648</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.112263435823371</v>
+        <v>2.111240137084433</v>
       </c>
       <c r="C17" t="n">
-        <v>1.631487952306397</v>
+        <v>1.734200028839421</v>
       </c>
       <c r="D17" t="n">
-        <v>3.841360451505877</v>
+        <v>3.976005559909658</v>
       </c>
       <c r="E17" t="n">
-        <v>2.979851846908442</v>
+        <v>4.041130947604636</v>
       </c>
     </row>
   </sheetData>
